--- a/reprovados.xlsx
+++ b/reprovados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pyMail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iberdrola-my.sharepoint.com/personal/tauan_santos_neoenergia_com/Documents/pymail/pyMail/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_4F52C0F7E58DA74A5FD7833352F11D40850AAAB6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC452AEE-0289-4A50-9BF4-128DDE4422B0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="3990" yWindow="4950" windowWidth="14610" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>NORTE</t>
   </si>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -126,6 +127,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,6 +146,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,11 +414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>45839.333333333336</v>
+        <v>45856.487500000003</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -448,7 +457,7 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>45839.395833333336</v>
       </c>
     </row>
@@ -540,11 +549,28 @@
         <v>45839.708333333336</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45856.489583333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+    </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;12&amp;K008000 Internal Use</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>